--- a/modul/database/uploads/data_testing.xlsx
+++ b/modul/database/uploads/data_testing.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>LAKI-LAKI</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SANGAT BAIK</t>
   </si>
   <si>
-    <t>TEPAT WAKTU</t>
-  </si>
-  <si>
     <t>ANAS</t>
   </si>
   <si>
@@ -59,37 +56,31 @@
     <t>VIKRI</t>
   </si>
   <si>
-    <t>LAKI-LAKIBAIKSANGAT BAIKSANGAT BAIKBAIK</t>
-  </si>
-  <si>
     <t>SEPTI</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>ips1</t>
-  </si>
-  <si>
-    <t>ips2</t>
-  </si>
-  <si>
-    <t>ips3</t>
-  </si>
-  <si>
-    <t>ips4</t>
-  </si>
-  <si>
-    <t>keterangan</t>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>np_m</t>
+  </si>
+  <si>
+    <t>nama_siswa</t>
+  </si>
+  <si>
+    <t>jenis_k</t>
+  </si>
+  <si>
+    <t>ips_1</t>
+  </si>
+  <si>
+    <t>ips_2</t>
+  </si>
+  <si>
+    <t>ips_3</t>
+  </si>
+  <si>
+    <t>ips_4</t>
   </si>
 </sst>
 </file>
@@ -164,16 +155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,7 +503,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -530,36 +521,33 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -567,7 +555,7 @@
         <v>2020804139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -584,11 +572,8 @@
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -596,7 +581,7 @@
         <v>2020804149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -613,11 +598,8 @@
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -625,7 +607,7 @@
         <v>2020804134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -642,11 +624,8 @@
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -654,7 +633,7 @@
         <v>2020804142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -671,11 +650,8 @@
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -683,7 +659,7 @@
         <v>2020804137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -699,15 +675,10 @@
       </c>
       <c r="H6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>